--- a/biology/Zoologie/Colias_christina/Colias_christina.xlsx
+++ b/biology/Zoologie/Colias_christina/Colias_christina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colias christina est une espèce d'insectes lépidoptères (papillons) de la famille des Pieridae, de la sous-famille des Coliadinae et du genre Colias.
 </t>
@@ -511,14 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Colias christina a été nommé par Edwards en 1863[1].
-Noms vernaculaires
-Colias christina se nomme Christina Sulphur en anglais.
-Sous-espèces
-Colias christina  christina du Montana à la Colombie-Britannique et aux Territoires du Nord-Ouest.
-Colias christina astraea (Edwards, 1872) au Montana, Wyoming et en Utah[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias christina a été nommé par Edwards en 1863.
+</t>
         </is>
       </c>
     </row>
@@ -543,15 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colias christina est un papillon de taille moyenne (son envergure varie de 35 à 45 mm). Le mâle est d'une couleur allant du jaune brillant dans la partie basale à l'orange. Le revers est verdâtre.
-Les femelles sont jaune pâle, très rarement blanches avec une très étroite bordure foncée[2].
-Chenille
-Les chenilles sont vertes ornées de raies longitudinales plus ou moins foncées[2].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias christina se nomme Christina Sulphur en anglais.
 </t>
         </is>
       </c>
@@ -577,17 +590,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Colias christina vole de mai à début septembre, en une seule génération[2].
-Colias christina hiberne au dernier stade de la chenille[3].
-Plantes hôtes
-La plante hôte de sa chenille est le sainfoin dont Hedysarum mackenzii[2].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Colias christina  christina du Montana à la Colombie-Britannique et aux Territoires du Nord-Ouest.
+Colias christina astraea (Edwards, 1872) au Montana, Wyoming et en Utah.</t>
         </is>
       </c>
     </row>
@@ -612,16 +627,234 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias christina est un papillon de taille moyenne (son envergure varie de 35 à 45 mm). Le mâle est d'une couleur allant du jaune brillant dans la partie basale à l'orange. Le revers est verdâtre.
+Les femelles sont jaune pâle, très rarement blanches avec une très étroite bordure foncée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Colias_christina</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_christina</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chenilles sont vertes ornées de raies longitudinales plus ou moins foncées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Colias_christina</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_christina</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias christina vole de mai à début septembre, en une seule génération.
+Colias christina hiberne au dernier stade de la chenille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Colias_christina</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_christina</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante hôte de sa chenille est le sainfoin dont Hedysarum mackenzii.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Colias_christina</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_christina</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colias christina est présent dans le nord-ouest de l'Amérique du Nord, au Canada dans les Territoires du Nord-Ouest, le Manitoba, l'Alberta et la Colombie-Britannique et aux USA dans le Montana, le Wyoming, l'Utah, l'Idaho, de Dakota du Sud et l'état de Washington[1],[3].
-Biotope
-Colias christina réside dans les prairies, les lisières de forêt au bord des routes.
-Protection
-Pas de statut de protection particulier[3].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias christina est présent dans le nord-ouest de l'Amérique du Nord, au Canada dans les Territoires du Nord-Ouest, le Manitoba, l'Alberta et la Colombie-Britannique et aux USA dans le Montana, le Wyoming, l'Utah, l'Idaho, de Dakota du Sud et l'état de Washington,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Colias_christina</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_christina</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias christina réside dans les prairies, les lisières de forêt au bord des routes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Colias_christina</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_christina</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
